--- a/settings/data/Passive.xlsx
+++ b/settings/data/Passive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8BE758-CD2A-43B0-81C6-0FCBF2457534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC32FB5-0199-475C-90D4-1D24A2ACEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12105" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passive" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>upg_patchouli</t>
   </si>
   <si>
-    <t>buff_max_mana_forever</t>
-  </si>
-  <si>
     <t>骊驹早鬼</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>upg_saki</t>
   </si>
   <si>
-    <t>buff_bullet_speed_forever</t>
-  </si>
-  <si>
     <t>矢田寺成美</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>upg_narumi</t>
   </si>
   <si>
-    <t>buff_live_disposable</t>
-  </si>
-  <si>
     <t>纯狐</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>upg_junko</t>
   </si>
   <si>
-    <t>buff_pyhsical_times_forever</t>
-  </si>
-  <si>
     <t>琪斯美</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>upg_kisumi</t>
   </si>
   <si>
-    <t>buff_pyhsical_defense_forever</t>
-  </si>
-  <si>
     <t>姬虫百百世</t>
   </si>
   <si>
@@ -221,9 +206,6 @@
   </si>
   <si>
     <t>upg_momoyo</t>
-  </si>
-  <si>
-    <t>buff_magical_addition_forever</t>
   </si>
   <si>
     <t>string</t>
@@ -231,6 +213,24 @@
   </si>
   <si>
     <t>upgrade_group</t>
+  </si>
+  <si>
+    <t>buff_mana_max_forever</t>
+  </si>
+  <si>
+    <t>buff_bullet_speed_ratio_forever</t>
+  </si>
+  <si>
+    <t>buff_player_life_addi_disposable</t>
+  </si>
+  <si>
+    <t>buff_danma_times_forever</t>
+  </si>
+  <si>
+    <t>buff_defence_melee_forever</t>
+  </si>
+  <si>
+    <t>buff_player_bullet_damage_ratio_forever</t>
   </si>
 </sst>
 </file>
@@ -585,22 +585,22 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="9" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+    <col min="8" max="9" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -679,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A9" si="0">C4&amp;"_"&amp;D4</f>
         <v>psv_patchouli_base</v>
@@ -700,142 +700,142 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>psv_saki_base</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>psv_narumi_base</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>psv_junko_base</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>psv_kisumi_base</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>psv_momoyo_base</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>

--- a/settings/data/Passive.xlsx
+++ b/settings/data/Passive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC32FB5-0199-475C-90D4-1D24A2ACEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C8FEC-B79A-4DAD-AE12-5718C008F2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22215" yWindow="8985" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passive" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,8 +681,8 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A9" si="0">C4&amp;"_"&amp;D4</f>
-        <v>psv_patchouli_base</v>
+        <f>C4</f>
+        <v>psv_patchouli</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -708,8 +708,8 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_saki_base</v>
+        <f>C5</f>
+        <v>psv_saki</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -735,8 +735,8 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_narumi_base</v>
+        <f>C6</f>
+        <v>psv_narumi</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -762,8 +762,8 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_junko_base</v>
+        <f>C7</f>
+        <v>psv_junko</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -789,8 +789,8 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_kisumi_base</v>
+        <f>C8</f>
+        <v>psv_kisumi</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -816,8 +816,8 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_momoyo_base</v>
+        <f>C9</f>
+        <v>psv_momoyo</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>

--- a/settings/data/Passive.xlsx
+++ b/settings/data/Passive.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C8FEC-B79A-4DAD-AE12-5718C008F2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D920F52-11E7-478D-BC06-B8E9A421AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22215" yWindow="8985" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="6360" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passive" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>string</t>
   </si>
@@ -48,6 +52,9 @@
   </si>
   <si>
     <t>中文名</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
   <si>
     <t>组ID</t>
@@ -142,6 +149,9 @@
     <t>*</t>
   </si>
   <si>
+    <t>upgrade_group</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -206,31 +216,6 @@
   </si>
   <si>
     <t>upg_momoyo</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_group</t>
-  </si>
-  <si>
-    <t>buff_mana_max_forever</t>
-  </si>
-  <si>
-    <t>buff_bullet_speed_ratio_forever</t>
-  </si>
-  <si>
-    <t>buff_player_life_addi_disposable</t>
-  </si>
-  <si>
-    <t>buff_danma_times_forever</t>
-  </si>
-  <si>
-    <t>buff_defence_melee_forever</t>
-  </si>
-  <si>
-    <t>buff_player_bullet_damage_ratio_forever</t>
   </si>
 </sst>
 </file>
@@ -242,6 +227,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,14 +256,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -309,11 +294,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -330,6 +315,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TID"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>发射追踪敌人的符纸</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>增加符力存储上限</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33" t="str">
+            <v>增加弹幕速度</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34" t="str">
+            <v>增加残机</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>增加发射数量</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36" t="str">
+            <v>增加体术抗性</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37" t="str">
+            <v>增加弹幕伤害倍率</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Buff"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>buff_mana_max_forever</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>buff_bullet_speed_ratio_forever</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>buff_player_life_addi_disposable</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>buff_danma_times_forever</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>buff_defence_melee_forever</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>buff_player_bullet_damage_ratio_forever</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,25 +660,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="35.375" customWidth="1"/>
-    <col min="8" max="9" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="35.375" customWidth="1"/>
+    <col min="9" max="10" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,233 +695,272 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A9" si="0">D4</f>
+        <v>psv_patchouli</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="str">
+        <f>[1]TID!$E$32</f>
+        <v>增加符力存储上限</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="str">
+        <f>[2]Buff!$A$4</f>
+        <v>buff_mana_max_forever</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>psv_saki</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="str">
+        <f>[1]TID!$E$33</f>
+        <v>增加弹幕速度</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="str">
+        <f>[2]Buff!$A$5</f>
+        <v>buff_bullet_speed_ratio_forever</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>psv_narumi</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="str">
+        <f>[1]TID!$E$34</f>
+        <v>增加残机</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="str">
+        <f>[2]Buff!$A$6</f>
+        <v>buff_player_life_addi_disposable</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>psv_junko</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="str">
+        <f>[1]TID!$E$35</f>
+        <v>增加发射数量</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="str">
+        <f>[2]Buff!$A$7</f>
+        <v>buff_danma_times_forever</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>psv_kisumi</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="str">
+        <f>[1]TID!$E$36</f>
+        <v>增加体术抗性</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="str">
+        <f>[2]Buff!$A$8</f>
+        <v>buff_defence_melee_forever</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>psv_momoyo</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="str">
+        <f>[1]TID!$E$37</f>
+        <v>增加弹幕伤害倍率</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="str">
-        <f>C4</f>
-        <v>psv_patchouli</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="str">
-        <f>C5</f>
-        <v>psv_saki</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="str">
-        <f>C6</f>
-        <v>psv_narumi</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="str">
-        <f>C7</f>
-        <v>psv_junko</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="str">
-        <f>C8</f>
-        <v>psv_kisumi</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="str">
-        <f>C9</f>
-        <v>psv_momoyo</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="str">
+        <f>[2]Buff!$A$9</f>
+        <v>buff_player_bullet_damage_ratio_forever</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/settings/data/Passive.xlsx
+++ b/settings/data/Passive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D920F52-11E7-478D-BC06-B8E9A421AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB460E-A4EC-4571-A720-B1ED5A0C5F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="6360" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="5010" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passive" sheetId="1" r:id="rId1"/>
@@ -320,16 +320,14 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="TID"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="24">
-          <cell r="E24" t="str">
-            <v>发射追踪敌人的符纸</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="E32" t="str">
             <v>增加符力存储上限</v>
@@ -663,7 +661,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I30" sqref="I26:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/settings/data/Passive.xlsx
+++ b/settings/data/Passive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB460E-A4EC-4571-A720-B1ED5A0C5F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68204C4C-513D-4159-AA7B-36A94FD50B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="5010" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passive" sheetId="1" r:id="rId1"/>
@@ -328,6 +328,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>发射追踪敌人的符纸</v>
+          </cell>
+        </row>
         <row r="32">
           <cell r="E32" t="str">
             <v>增加符力存储上限</v>
@@ -661,23 +666,23 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I26:J30"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="35.375" customWidth="1"/>
-    <col min="9" max="10" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="8" max="8" width="35.36328125" customWidth="1"/>
+    <col min="9" max="10" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -736,7 +741,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -765,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A9" si="0">D4</f>
         <v>psv_patchouli</v>
@@ -797,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>psv_saki</v>
@@ -829,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>psv_narumi</v>
@@ -861,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>psv_junko</v>
@@ -893,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>psv_kisumi</v>
@@ -925,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>psv_momoyo</v>
